--- a/data/tabla 03-10.xlsx
+++ b/data/tabla 03-10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>2010</t>
   </si>
@@ -73,10 +73,894 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="443">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="664">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1847,7 +2731,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="96">
+  <fills count="143">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2324,8 +3208,243 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="353">
+  <borders count="529">
     <border>
       <left/>
       <right/>
@@ -5017,11 +6136,1353 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -6428,6 +8889,710 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="442" fillId="95" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="455" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="456" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="457" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="458" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="459" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="460" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="461" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="462" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="463" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="464" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="465" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="466" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="467" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="468" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="469" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="470" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="471" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="472" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="477" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="478" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="484" fillId="0" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="486" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="487" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="488" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="490" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="493" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="496" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="499" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="500" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="501" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="502" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="503" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="505" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="506" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="507" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="508" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="509" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="510" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="511" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="512" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="514" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="515" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="517" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="518" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="520" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="534" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="536" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="538" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="540" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="542" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="544" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="546" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="552" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="554" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="556" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="558" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="560" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="564" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="570" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="576" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="582" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="588" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="594" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="600" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="606" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="612" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="614" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="96" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="97" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="98" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="620" fillId="99" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="621" fillId="100" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="101" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="623" fillId="102" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="103" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="625" fillId="104" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="626" fillId="105" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="627" fillId="106" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="107" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="629" fillId="108" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="109" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="631" fillId="110" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="632" fillId="111" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="633" fillId="112" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="113" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="635" fillId="114" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="115" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="637" fillId="116" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="638" fillId="117" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="639" fillId="118" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="119" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="641" fillId="120" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="121" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="643" fillId="122" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="644" fillId="123" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="645" fillId="124" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="125" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="647" fillId="126" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="648" fillId="127" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="649" fillId="128" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="650" fillId="129" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="651" fillId="130" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="131" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="653" fillId="132" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="654" fillId="133" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="655" fillId="134" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="656" fillId="135" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="657" fillId="136" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="137" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="659" fillId="138" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="139" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="661" fillId="140" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="141" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="142" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6444,167 +9609,167 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="482" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="351" t="s">
+      <c r="B2" s="527" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="528" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="485" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="310">
+      <c r="B3" s="486">
         <v>44.442291259765625</v>
       </c>
-      <c r="C3" s="311">
+      <c r="C3" s="487">
         <v>47.719284057617188</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="488" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="313">
+      <c r="B4" s="489">
         <v>40.811019897460937</v>
       </c>
-      <c r="C4" s="314">
+      <c r="C4" s="490">
         <v>42.067115783691406</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="491" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="316">
+      <c r="B5" s="492">
         <v>39.693977355957031</v>
       </c>
-      <c r="C5" s="317">
+      <c r="C5" s="493">
         <v>40.825035095214844</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="494" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="319">
+      <c r="B6" s="495">
         <v>41.296875</v>
       </c>
-      <c r="C6" s="320">
+      <c r="C6" s="496">
         <v>43.102630615234375</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="321" t="s">
+      <c r="A7" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="322">
+      <c r="B7" s="498">
         <v>39.431659698486328</v>
       </c>
-      <c r="C7" s="323">
+      <c r="C7" s="499">
         <v>41.326839447021484</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="500" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="325">
+      <c r="B8" s="501">
         <v>41.958854675292969</v>
       </c>
-      <c r="C8" s="326">
+      <c r="C8" s="502">
         <v>43.162033081054687</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="327" t="s">
+      <c r="A9" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="328">
+      <c r="B9" s="504">
         <v>40.746719360351563</v>
       </c>
-      <c r="C9" s="329">
+      <c r="C9" s="505">
         <v>42.076927185058594</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="506" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="331">
+      <c r="B10" s="507">
         <v>37.807415008544922</v>
       </c>
-      <c r="C10" s="332">
+      <c r="C10" s="508">
         <v>38.648078918457031</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="333" t="s">
+      <c r="A11" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="334">
+      <c r="B11" s="510">
         <v>41.932701110839844</v>
       </c>
-      <c r="C11" s="335">
+      <c r="C11" s="511">
         <v>44.16339111328125</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="336" t="s">
+      <c r="A12" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="337">
+      <c r="B12" s="513">
         <v>40.014469146728516</v>
       </c>
-      <c r="C12" s="338">
+      <c r="C12" s="514">
         <v>42.100532531738281</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="339" t="s">
+      <c r="A13" s="515" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="340">
+      <c r="B13" s="516">
         <v>39.424163818359375</v>
       </c>
-      <c r="C13" s="341">
+      <c r="C13" s="517">
         <v>41.701690673828125</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="342" t="s">
+      <c r="A14" s="518" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="343">
+      <c r="B14" s="519">
         <v>42.797233581542969</v>
       </c>
-      <c r="C14" s="344">
+      <c r="C14" s="520">
         <v>44.011848449707031</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="521" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="346">
+      <c r="B15" s="522">
         <v>41.78717041015625</v>
       </c>
-      <c r="C15" s="347">
+      <c r="C15" s="523">
         <v>43.143714904785156</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="348" t="s">
+      <c r="A16" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="349">
+      <c r="B16" s="525">
         <v>41.605014801025391</v>
       </c>
-      <c r="C16" s="350">
+      <c r="C16" s="526">
         <v>43.212192535400391</v>
       </c>
     </row>

--- a/data/tabla 03-10.xlsx
+++ b/data/tabla 03-10.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId2"/>
+    <sheet name="cv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>2010</t>
   </si>
@@ -73,10 +74,2662 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="664">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="1327">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2731,7 +5384,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="143">
+  <fills count="284">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3443,8 +6096,713 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="529">
+  <borders count="1057">
     <border>
       <left/>
       <right/>
@@ -7478,11 +10836,4049 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="529">
+  <cellXfs count="1057">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -9593,6 +16989,2118 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="663" fillId="142" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="676" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="677" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="678" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="679" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="680" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="681" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="682" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="683" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="684" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="685" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="686" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="687" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="688" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="689" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="694" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="700" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="703" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="706" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="720" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="721" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="722" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="723" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="724" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="726" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="727" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="728" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="729" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="730" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="731" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="732" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="733" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="737" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="738" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="755" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="761" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="763" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="767" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="773" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="779" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="785" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="787" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="789" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="791" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="797" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="799" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="803" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="805" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="809" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="811" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="813" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="815" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="817" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="821" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="823" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="827" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="829" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="833" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="835" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="143" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="144" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="145" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="841" fillId="146" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="842" fillId="147" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="148" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="844" fillId="149" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="150" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="846" fillId="151" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="847" fillId="152" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="848" fillId="153" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="154" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="850" fillId="155" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="156" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="852" fillId="157" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="853" fillId="158" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="854" fillId="159" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="160" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="856" fillId="161" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="162" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="858" fillId="163" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="859" fillId="164" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="860" fillId="165" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="861" fillId="166" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="862" fillId="167" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="168" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="864" fillId="169" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="865" fillId="170" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="171" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="867" fillId="172" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="868" fillId="173" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="174" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="870" fillId="175" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="871" fillId="176" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="177" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="873" fillId="178" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="874" fillId="179" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="875" fillId="180" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="876" fillId="181" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="877" fillId="182" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="183" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="879" fillId="184" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="880" fillId="185" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="186" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="882" fillId="187" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="188" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="189" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="897" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="898" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="899" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="900" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="901" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="902" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="903" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="904" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="905" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="906" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="907" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="908" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="909" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="910" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="911" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="912" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="913" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="914" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="915" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="916" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="917" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="918" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="919" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="922" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="923" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="924" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="925" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="928" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="931" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="934" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="935" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="936" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="937" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="941" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="942" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="943" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="946" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="947" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="948" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="949" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="952" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="955" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="958" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="959" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="960" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="961" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="964" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="965" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="966" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="967" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="968" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="976" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="978" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="982" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="984" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="986" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="988" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="990" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="992" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="994" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="996" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="998" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1000" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1002" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1004" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1006" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1008" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1010" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1012" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1014" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1016" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1018" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1020" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1022" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1024" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1026" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1028" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1030" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1032" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1034" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1036" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1038" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1040" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1042" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1044" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1046" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1048" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1050" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1052" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1054" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1056" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1058" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="190" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="191" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="192" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1062" fillId="193" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1063" fillId="194" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1064" fillId="195" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1065" fillId="196" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1066" fillId="197" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1067" fillId="198" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1068" fillId="199" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1069" fillId="200" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1070" fillId="201" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1071" fillId="202" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1072" fillId="203" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1073" fillId="204" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1074" fillId="205" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1075" fillId="206" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1076" fillId="207" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1077" fillId="208" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1078" fillId="209" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1079" fillId="210" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1080" fillId="211" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1081" fillId="212" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1082" fillId="213" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1083" fillId="214" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1084" fillId="215" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1085" fillId="216" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1086" fillId="217" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1087" fillId="218" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1088" fillId="219" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1089" fillId="220" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1090" fillId="221" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1091" fillId="222" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1092" fillId="223" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1093" fillId="224" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1094" fillId="225" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1095" fillId="226" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1096" fillId="227" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1097" fillId="228" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1098" fillId="229" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1099" fillId="230" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1100" fillId="231" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1101" fillId="232" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1102" fillId="233" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1103" fillId="234" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="235" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="236" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1118" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1119" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1120" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1121" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1122" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1123" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1124" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1125" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1126" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1127" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1128" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1129" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1130" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1131" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1132" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1133" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1134" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1135" fillId="0" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1136" fillId="0" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1137" fillId="0" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1138" fillId="0" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1139" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1140" fillId="0" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1141" fillId="0" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1142" fillId="0" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1143" fillId="0" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1144" fillId="0" borderId="919" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1145" fillId="0" borderId="920" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1146" fillId="0" borderId="921" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1147" fillId="0" borderId="922" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1148" fillId="0" borderId="923" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1149" fillId="0" borderId="924" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1150" fillId="0" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1151" fillId="0" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1152" fillId="0" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1153" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1154" fillId="0" borderId="929" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1155" fillId="0" borderId="930" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1156" fillId="0" borderId="931" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1157" fillId="0" borderId="932" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1158" fillId="0" borderId="933" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1159" fillId="0" borderId="934" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="0" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1162" fillId="0" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1163" fillId="0" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1164" fillId="0" borderId="939" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1165" fillId="0" borderId="940" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1166" fillId="0" borderId="941" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1167" fillId="0" borderId="942" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1168" fillId="0" borderId="943" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1169" fillId="0" borderId="944" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1170" fillId="0" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1171" fillId="0" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1172" fillId="0" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1173" fillId="0" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1174" fillId="0" borderId="949" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1175" fillId="0" borderId="950" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1176" fillId="0" borderId="951" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1177" fillId="0" borderId="952" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1178" fillId="0" borderId="953" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1179" fillId="0" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1180" fillId="0" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1181" fillId="0" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1182" fillId="0" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1183" fillId="0" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1184" fillId="0" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1185" fillId="0" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1186" fillId="0" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1187" fillId="0" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1188" fillId="0" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1189" fillId="0" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="0" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="0" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="0" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1197" fillId="0" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1199" fillId="0" borderId="969" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1201" fillId="0" borderId="970" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1203" fillId="0" borderId="971" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1205" fillId="0" borderId="972" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1207" fillId="0" borderId="973" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1209" fillId="0" borderId="974" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1211" fillId="0" borderId="975" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1213" fillId="0" borderId="976" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1215" fillId="0" borderId="977" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1217" fillId="0" borderId="978" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1219" fillId="0" borderId="979" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1221" fillId="0" borderId="980" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1223" fillId="0" borderId="981" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1225" fillId="0" borderId="982" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1227" fillId="0" borderId="983" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1229" fillId="0" borderId="984" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1231" fillId="0" borderId="985" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1233" fillId="0" borderId="986" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1235" fillId="0" borderId="987" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1237" fillId="0" borderId="988" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1239" fillId="0" borderId="989" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1241" fillId="0" borderId="990" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1243" fillId="0" borderId="991" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1245" fillId="0" borderId="992" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1247" fillId="0" borderId="993" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1249" fillId="0" borderId="994" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1251" fillId="0" borderId="995" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1253" fillId="0" borderId="996" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1255" fillId="0" borderId="997" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1257" fillId="0" borderId="998" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1259" fillId="0" borderId="999" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1261" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1263" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1265" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1267" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1269" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1271" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1273" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1275" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1277" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1279" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1280" fillId="237" borderId="1010" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1281" fillId="238" borderId="1011" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1282" fillId="239" borderId="1012" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1283" fillId="240" borderId="1013" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1284" fillId="241" borderId="1014" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1285" fillId="242" borderId="1015" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1286" fillId="243" borderId="1016" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1287" fillId="244" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1288" fillId="245" borderId="1018" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1289" fillId="246" borderId="1019" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1290" fillId="247" borderId="1020" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1291" fillId="248" borderId="1021" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1292" fillId="249" borderId="1022" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1293" fillId="250" borderId="1023" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1294" fillId="251" borderId="1024" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1295" fillId="252" borderId="1025" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1296" fillId="253" borderId="1026" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1297" fillId="254" borderId="1027" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1298" fillId="255" borderId="1028" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1299" fillId="256" borderId="1029" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1300" fillId="257" borderId="1030" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1301" fillId="258" borderId="1031" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1302" fillId="259" borderId="1032" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1303" fillId="260" borderId="1033" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1304" fillId="261" borderId="1034" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1305" fillId="262" borderId="1035" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1306" fillId="263" borderId="1036" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1307" fillId="264" borderId="1037" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1308" fillId="265" borderId="1038" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1309" fillId="266" borderId="1039" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1310" fillId="267" borderId="1040" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1311" fillId="268" borderId="1041" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1312" fillId="269" borderId="1042" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1313" fillId="270" borderId="1043" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1314" fillId="271" borderId="1044" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1315" fillId="272" borderId="1045" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1316" fillId="273" borderId="1046" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1317" fillId="274" borderId="1047" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1318" fillId="275" borderId="1048" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1319" fillId="276" borderId="1049" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1320" fillId="277" borderId="1050" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1321" fillId="278" borderId="1051" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1322" fillId="279" borderId="1052" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1323" fillId="280" borderId="1053" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1324" fillId="281" borderId="1054" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1325" fillId="282" borderId="1055" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1326" fillId="283" borderId="1056" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9609,167 +19117,167 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="834" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="527" t="s">
+      <c r="B2" s="879" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="528" t="s">
+      <c r="C2" s="880" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="485" t="s">
+      <c r="A3" s="837" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="486">
+      <c r="B3" s="838">
         <v>44.442291259765625</v>
       </c>
-      <c r="C3" s="487">
+      <c r="C3" s="839">
         <v>47.719284057617188</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="488" t="s">
+      <c r="A4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="489">
+      <c r="B4" s="841">
         <v>40.811019897460937</v>
       </c>
-      <c r="C4" s="490">
+      <c r="C4" s="842">
         <v>42.067115783691406</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="491" t="s">
+      <c r="A5" s="843" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="492">
+      <c r="B5" s="844">
         <v>39.693977355957031</v>
       </c>
-      <c r="C5" s="493">
+      <c r="C5" s="845">
         <v>40.825035095214844</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="494" t="s">
+      <c r="A6" s="846" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="495">
+      <c r="B6" s="847">
         <v>41.296875</v>
       </c>
-      <c r="C6" s="496">
+      <c r="C6" s="848">
         <v>43.102630615234375</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="497" t="s">
+      <c r="A7" s="849" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="498">
+      <c r="B7" s="850">
         <v>39.431659698486328</v>
       </c>
-      <c r="C7" s="499">
+      <c r="C7" s="851">
         <v>41.326839447021484</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="500" t="s">
+      <c r="A8" s="852" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="501">
+      <c r="B8" s="853">
         <v>41.958854675292969</v>
       </c>
-      <c r="C8" s="502">
+      <c r="C8" s="854">
         <v>43.162033081054687</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="503" t="s">
+      <c r="A9" s="855" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="504">
+      <c r="B9" s="856">
         <v>40.746719360351563</v>
       </c>
-      <c r="C9" s="505">
+      <c r="C9" s="857">
         <v>42.076927185058594</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="506" t="s">
+      <c r="A10" s="858" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="507">
+      <c r="B10" s="859">
         <v>37.807415008544922</v>
       </c>
-      <c r="C10" s="508">
+      <c r="C10" s="860">
         <v>38.648078918457031</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="509" t="s">
+      <c r="A11" s="861" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="510">
+      <c r="B11" s="862">
         <v>41.932701110839844</v>
       </c>
-      <c r="C11" s="511">
+      <c r="C11" s="863">
         <v>44.16339111328125</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="864" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="513">
+      <c r="B12" s="865">
         <v>40.014469146728516</v>
       </c>
-      <c r="C12" s="514">
+      <c r="C12" s="866">
         <v>42.100532531738281</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="515" t="s">
+      <c r="A13" s="867" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="516">
+      <c r="B13" s="868">
         <v>39.424163818359375</v>
       </c>
-      <c r="C13" s="517">
+      <c r="C13" s="869">
         <v>41.701690673828125</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="518" t="s">
+      <c r="A14" s="870" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="519">
+      <c r="B14" s="871">
         <v>42.797233581542969</v>
       </c>
-      <c r="C14" s="520">
+      <c r="C14" s="872">
         <v>44.011848449707031</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="521" t="s">
+      <c r="A15" s="873" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="522">
+      <c r="B15" s="874">
         <v>41.78717041015625</v>
       </c>
-      <c r="C15" s="523">
+      <c r="C15" s="875">
         <v>43.143714904785156</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="524" t="s">
+      <c r="A16" s="876" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="525">
+      <c r="B16" s="877">
         <v>41.605014801025391</v>
       </c>
-      <c r="C16" s="526">
+      <c r="C16" s="878">
         <v>43.212192535400391</v>
       </c>
     </row>
@@ -9780,4 +19288,181 @@
     <mergeCell ref="A2:A2"/>
   </mergeCells>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1010" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1055"/>
+      <c r="C2" s="1056" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1013" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1014">
+        <v>0.69702339172363281</v>
+      </c>
+      <c r="C3" s="1015">
+        <v>0.69630825519561768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1016" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1017">
+        <v>3.0892603397369385</v>
+      </c>
+      <c r="C4" s="1018">
+        <v>2.537588357925415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1019" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1020">
+        <v>1.1800541877746582</v>
+      </c>
+      <c r="C5" s="1021">
+        <v>1.0957363843917847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1023">
+        <v>0.81763619184494019</v>
+      </c>
+      <c r="C6" s="1024">
+        <v>0.74950248003005981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1025" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1026">
+        <v>2.5488836765289307</v>
+      </c>
+      <c r="C7" s="1027">
+        <v>2.6711521148681641</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1028" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1029">
+        <v>0.91958028078079224</v>
+      </c>
+      <c r="C8" s="1030">
+        <v>0.80802953243255615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1031" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1032">
+        <v>1.5026037693023682</v>
+      </c>
+      <c r="C9" s="1033">
+        <v>0.71632736921310425</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1034" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1035">
+        <v>1.8544130325317383</v>
+      </c>
+      <c r="C10" s="1036">
+        <v>1.6602356433868408</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1037" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1038">
+        <v>0.97561973333358765</v>
+      </c>
+      <c r="C11" s="1039">
+        <v>0.94046086072921753</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1041">
+        <v>1.7399502992630005</v>
+      </c>
+      <c r="C12" s="1042">
+        <v>1.690637469291687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1043" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1044">
+        <v>1.2686240673065186</v>
+      </c>
+      <c r="C13" s="1045">
+        <v>1.0930509567260742</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1046" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1047">
+        <v>0.65750175714492798</v>
+      </c>
+      <c r="C14" s="1048">
+        <v>0.5213700532913208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1050">
+        <v>1.0225908756256104</v>
+      </c>
+      <c r="C15" s="1051">
+        <v>0.92670547962188721</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1052" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1053">
+        <v>0.38434901833534241</v>
+      </c>
+      <c r="C16" s="1054">
+        <v>0.26571816205978394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A2:A2"/>
+  </mergeCells>
+</worksheet>
 </file>